--- a/bpm reps.xlsx
+++ b/bpm reps.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaskhani0112\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>N</t>
   </si>
@@ -169,12 +164,371 @@
       <t> on .NET Platform with C# (no Java Coding required!)</t>
     </r>
   </si>
+  <si>
+    <t>smoogipoo/osu--BPM-Changer</t>
+  </si>
+  <si>
+    <t>опять какой то музыкальный плеер</t>
+  </si>
+  <si>
+    <t>aiska/BpmNet</t>
+  </si>
+  <si>
+    <t>более менее рабочее решение</t>
+  </si>
+  <si>
+    <t>microdee/mp.vaudio</t>
+  </si>
+  <si>
+    <t>Extension nodes for VAudio vvvv pack</t>
+  </si>
+  <si>
+    <t>01vadim10/BPMService</t>
+  </si>
+  <si>
+    <t>Веб-приложение управляющее сущностями сторонней информационной системы (Bpm'online CRM) с помощью API этой сторонней системы #Логика приложения:</t>
+  </si>
+  <si>
+    <t>Theremiracle/BPMUtility</t>
+  </si>
+  <si>
+    <t>Какой то поисковик файлов</t>
+  </si>
+  <si>
+    <t>damien-rousseau/BPMS</t>
+  </si>
+  <si>
+    <t>Workflow foundation</t>
+  </si>
+  <si>
+    <t>rbucinell/bpms</t>
+  </si>
+  <si>
+    <t>Игра в пиво )) пипец америкосы ))</t>
+  </si>
+  <si>
+    <t>vashkan/BPMN</t>
+  </si>
+  <si>
+    <t>BPMN редактор. Но нужен MONO</t>
+  </si>
+  <si>
+    <t>hokumski/BPMOData</t>
+  </si>
+  <si>
+    <t>Proxy class methods for accessing EntityDateService of BPMonline</t>
+  </si>
+  <si>
+    <t>abcsharp/BPMAnalyzer</t>
+  </si>
+  <si>
+    <r>
+      <t>Analyze music </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>respag/BPMComplement</t>
+  </si>
+  <si>
+    <t>Какое то bpm решение</t>
+  </si>
+  <si>
+    <t>bossen/BPMplaylist</t>
+  </si>
+  <si>
+    <t>Создание плейлиста</t>
+  </si>
+  <si>
+    <t>gyurisb/bpmenetrend</t>
+  </si>
+  <si>
+    <t>Приложение WP связано с транспортом</t>
+  </si>
+  <si>
+    <t>morris6619/BPMWEB</t>
+  </si>
+  <si>
+    <t>Приложене связаное с KENDO UI</t>
+  </si>
+  <si>
+    <t>filimonic/BPMCustomizer</t>
+  </si>
+  <si>
+    <t>Steam Big Picture Mod Customizer</t>
+  </si>
+  <si>
+    <t>xiaomuc/BPMDetect</t>
+  </si>
+  <si>
+    <t>Опять какой музыкальный плеер</t>
+  </si>
+  <si>
+    <t>parkm/bpm-unity</t>
+  </si>
+  <si>
+    <t>опять UNITY</t>
+  </si>
+  <si>
+    <t>jabedude/bpmSharp</t>
+  </si>
+  <si>
+    <t>какой то ютюб загрузчик</t>
+  </si>
+  <si>
+    <t>Dominique2509/BpmTapper</t>
+  </si>
+  <si>
+    <t>Нажмите чтобы определить серцебиение</t>
+  </si>
+  <si>
+    <t>EdBSTU/Test_bpm</t>
+  </si>
+  <si>
+    <t>Опять какое то решение связанное с bpm online</t>
+  </si>
+  <si>
+    <t>jablko359/BpmnEditor</t>
+  </si>
+  <si>
+    <t>Bpmn редактор. Но проблема что оно сохраняет только в xpdl</t>
+  </si>
+  <si>
+    <t>RobinGitHub/BPMSV2</t>
+  </si>
+  <si>
+    <t>Опять какая то китайска bpm система</t>
+  </si>
+  <si>
+    <t>limingpr/BpmHelper</t>
+  </si>
+  <si>
+    <t>Какой то пример с ДБ серверами</t>
+  </si>
+  <si>
+    <t>VesnaBrucoms/BPMTowerDefence</t>
+  </si>
+  <si>
+    <r>
+      <t>uakostya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BpmonlineConfigPlugin</t>
+    </r>
+  </si>
+  <si>
+    <t>IIS Manager extention for configuring bpm'online web site settings 
+Here is the main settings available in the current version:</t>
+  </si>
+  <si>
+    <t>Какая то игра написанная на MS XMA TowerDefense</t>
+  </si>
+  <si>
+    <t>hantersuxx/BpmOnline</t>
+  </si>
+  <si>
+    <t>Какая то фигня опять с bpmn online</t>
+  </si>
+  <si>
+    <t>soft-Dev/ExternalBPM</t>
+  </si>
+  <si>
+    <t>проект пустышка</t>
+  </si>
+  <si>
+    <t>ilatan/BPM_Wrapper</t>
+  </si>
+  <si>
+    <t>JonyTek/Bpm-Counter</t>
+  </si>
+  <si>
+    <t>проект ангуляра и вебформс</t>
+  </si>
+  <si>
+    <t>Edoc2/JohnsonBpm</t>
+  </si>
+  <si>
+    <t>какой то пример с EF</t>
+  </si>
+  <si>
+    <t>ebenalex/BPMDeploymentTool</t>
+  </si>
+  <si>
+    <t>какое то решение с разворотом BPM китайцы</t>
+  </si>
+  <si>
+    <t>darkthread/BPMFInputPad</t>
+  </si>
+  <si>
+    <t>XAML inputpad</t>
+  </si>
+  <si>
+    <t>zjkl19/BPMS01</t>
+  </si>
+  <si>
+    <t>Experiment project for Bridge Project management system</t>
+  </si>
+  <si>
+    <t>atwayne/lastBPM</t>
+  </si>
+  <si>
+    <t>Какая то имитация BPM системы на MONO</t>
+  </si>
+  <si>
+    <t>weibin268/Zhuang.BPM</t>
+  </si>
+  <si>
+    <t>Китайская BPM пустышка</t>
+  </si>
+  <si>
+    <t>FordTeam/FordBPM</t>
+  </si>
+  <si>
+    <t>пустышка</t>
+  </si>
+  <si>
+    <t>ephebe/SugiBpm</t>
+  </si>
+  <si>
+    <t>Китайская SugiBpm</t>
+  </si>
+  <si>
+    <t>peterwidmer/DotBpm</t>
+  </si>
+  <si>
+    <t>Какие то рабочие BPM подделки</t>
+  </si>
+  <si>
+    <t>InFlowBPM/InFlow-BPMS</t>
+  </si>
+  <si>
+    <t>BPM система и workflow foundation  Интереснооо</t>
+  </si>
+  <si>
+    <t>hager1981/Bancolombia</t>
+  </si>
+  <si>
+    <t>Какая то хрень с FAÇADE</t>
+  </si>
+  <si>
+    <r>
+      <t>Sohojoe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>WatchTheBPM</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple Xamain iOS Watch App for tapping BPM on Apple Watch ...</t>
+  </si>
+  <si>
+    <t>kevinzhang96/kinect-hand-bpm</t>
+  </si>
+  <si>
+    <t>A Unity/Visual Studio collaboration designed to determine the rhythm of a waving hand. Part of ConductMe for YHack15.</t>
+  </si>
+  <si>
+    <t>jdanado/BPM_Asp.net</t>
+  </si>
+  <si>
+    <t>Какой то BPM движок</t>
+  </si>
+  <si>
+    <t>hsjing/awake.bpm.gui.cs</t>
+  </si>
+  <si>
+    <t>Непонятно</t>
+  </si>
+  <si>
+    <t>Vorobushek221/BpmContactManager</t>
+  </si>
+  <si>
+    <t>bpmonline contactmanager</t>
+  </si>
+  <si>
+    <t>HiraokaHyperTools/Bpmn20XmlValidator</t>
+  </si>
+  <si>
+    <t>BPMN валидатор</t>
+  </si>
+  <si>
+    <t>HuiY/BPMNExecutionAndConformance</t>
+  </si>
+  <si>
+    <t>kan6xing/BpmCodeGen</t>
+  </si>
+  <si>
+    <t>Какая то лажа</t>
+  </si>
+  <si>
+    <t>vadimart92/BpmProductivityTools</t>
+  </si>
+  <si>
+    <t>mi-tettamanti/akka-net-bpm</t>
+  </si>
+  <si>
+    <t>Какой то движок akka-net-bpm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +563,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -232,6 +578,57 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF586069"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF586069"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0366D6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0366D6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -264,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -276,39 +673,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -328,8 +743,26 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -346,8 +779,8 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -364,26 +797,8 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -401,12 +816,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C30" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C90" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:C90"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="N" dataDxfId="2"/>
-    <tableColumn id="2" name="name" dataDxfId="1"/>
-    <tableColumn id="3" name="Описание" dataDxfId="0"/>
+    <tableColumn id="1" name="N" dataDxfId="3"/>
+    <tableColumn id="2" name="name" dataDxfId="2"/>
+    <tableColumn id="3" name="Описание" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,7 +870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,7 +905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +1082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,17 +1090,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="79" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,307 +1116,929 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
+      <c r="B16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>32</v>
+      <c r="B17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>70</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="13"/>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>77</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>78</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="13"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>80</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>81</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>82</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>83</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="13"/>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="13"/>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>85</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="13"/>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="13"/>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>87</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>88</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1017,13 +2054,61 @@
     <hyperlink ref="B13" r:id="rId10" display="https://github.com/SKYTEAMS/BPMS"/>
     <hyperlink ref="B14" r:id="rId11" display="https://github.com/WestHillApps/UniBpmAnalyzer"/>
     <hyperlink ref="B15" r:id="rId12" display="https://github.com/hozuki/Chihya.Tempo"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://github.com/akainq/BPMS"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://github.com/berndruecker/camunda-dot-net-showcase"/>
+    <hyperlink ref="B17" r:id="rId13" display="https://github.com/akainq/BPMS"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://github.com/berndruecker/camunda-dot-net-showcase"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://github.com/smoogipoo/osu--BPM-Changer"/>
+    <hyperlink ref="B20" r:id="rId16" display="https://github.com/aiska/BpmNet"/>
+    <hyperlink ref="B21" r:id="rId17" display="https://github.com/microdee/mp.vaudio"/>
+    <hyperlink ref="B22" r:id="rId18" display="https://github.com/01vadim10/BPMService"/>
+    <hyperlink ref="B23" r:id="rId19" display="https://github.com/Theremiracle/BPMUtility"/>
+    <hyperlink ref="B24" r:id="rId20" display="https://github.com/damien-rousseau/BPMS"/>
+    <hyperlink ref="B25" r:id="rId21" display="https://github.com/rbucinell/bpms"/>
+    <hyperlink ref="B26" r:id="rId22" display="https://github.com/vashkan/BPMN"/>
+    <hyperlink ref="B27" r:id="rId23" display="https://github.com/hokumski/BPMOData"/>
+    <hyperlink ref="B28" r:id="rId24" display="https://github.com/abcsharp/BPMAnalyzer"/>
+    <hyperlink ref="B29" r:id="rId25" display="https://github.com/respag/BPMComplement"/>
+    <hyperlink ref="B30" r:id="rId26" display="https://github.com/bossen/BPMplaylist"/>
+    <hyperlink ref="B31" r:id="rId27" display="https://github.com/gyurisb/bpmenetrend"/>
+    <hyperlink ref="B32" r:id="rId28" display="https://github.com/morris6619/BPMWEB"/>
+    <hyperlink ref="B33" r:id="rId29" display="https://github.com/filimonic/BPMCustomizer"/>
+    <hyperlink ref="B34" r:id="rId30" display="https://github.com/xiaomuc/BPMDetect"/>
+    <hyperlink ref="B35" r:id="rId31" display="https://github.com/parkm/bpm-unity"/>
+    <hyperlink ref="B36" r:id="rId32" display="https://github.com/jabedude/bpmSharp"/>
+    <hyperlink ref="B37" r:id="rId33" display="https://github.com/Dominique2509/BpmTapper"/>
+    <hyperlink ref="B38" r:id="rId34" display="https://github.com/EdBSTU/Test_bpm"/>
+    <hyperlink ref="B39" r:id="rId35" display="https://github.com/jablko359/BpmnEditor"/>
+    <hyperlink ref="B40" r:id="rId36" display="https://github.com/RobinGitHub/BPMSV2"/>
+    <hyperlink ref="B41" r:id="rId37" display="https://github.com/limingpr/BpmHelper"/>
+    <hyperlink ref="B42" r:id="rId38" display="https://github.com/VesnaBrucoms/BPMTowerDefence"/>
+    <hyperlink ref="B43" r:id="rId39" display="https://github.com/hantersuxx/BpmOnline"/>
+    <hyperlink ref="B44" r:id="rId40" display="https://github.com/soft-Dev/ExternalBPM"/>
+    <hyperlink ref="B45" r:id="rId41" display="https://github.com/ilatan/BPM_Wrapper"/>
+    <hyperlink ref="B46" r:id="rId42" display="https://github.com/JonyTek/Bpm-Counter"/>
+    <hyperlink ref="B47" r:id="rId43" display="https://github.com/Edoc2/JohnsonBpm"/>
+    <hyperlink ref="B48" r:id="rId44" display="https://github.com/ebenalex/BPMDeploymentTool"/>
+    <hyperlink ref="B49" r:id="rId45" display="https://github.com/darkthread/BPMFInputPad"/>
+    <hyperlink ref="B50" r:id="rId46" display="https://github.com/zjkl19/BPMS01"/>
+    <hyperlink ref="B51" r:id="rId47" display="https://github.com/atwayne/lastBPM"/>
+    <hyperlink ref="B52" r:id="rId48" display="https://github.com/weibin268/Zhuang.BPM"/>
+    <hyperlink ref="B53" r:id="rId49" display="https://github.com/FordTeam/FordBPM"/>
+    <hyperlink ref="B54" r:id="rId50" display="https://github.com/ephebe/SugiBpm"/>
+    <hyperlink ref="B55" r:id="rId51" display="https://github.com/peterwidmer/DotBpm"/>
+    <hyperlink ref="B56" r:id="rId52" display="https://github.com/InFlowBPM/InFlow-BPMS"/>
+    <hyperlink ref="B57" r:id="rId53" display="https://github.com/hager1981/Bancolombia"/>
+    <hyperlink ref="B59" r:id="rId54" display="https://github.com/kevinzhang96/kinect-hand-bpm"/>
+    <hyperlink ref="B60" r:id="rId55" display="https://github.com/jdanado/BPM_Asp.net"/>
+    <hyperlink ref="B61" r:id="rId56" display="https://github.com/hsjing/awake.bpm.gui.cs"/>
+    <hyperlink ref="B62" r:id="rId57" display="https://github.com/Vorobushek221/BpmContactManager"/>
+    <hyperlink ref="B63" r:id="rId58" display="https://github.com/HiraokaHyperTools/Bpmn20XmlValidator"/>
+    <hyperlink ref="B64" r:id="rId59" display="https://github.com/HuiY/BPMNExecutionAndConformance"/>
+    <hyperlink ref="B65" r:id="rId60" display="https://github.com/kan6xing/BpmCodeGen"/>
+    <hyperlink ref="B66" r:id="rId61" display="https://github.com/vadimart92/BpmProductivityTools"/>
+    <hyperlink ref="B67" r:id="rId62" display="https://github.com/mi-tettamanti/akka-net-bpm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId64"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bpm reps.xlsx
+++ b/bpm reps.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JETBPM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12435"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="202">
   <si>
     <t>N</t>
   </si>
@@ -522,6 +527,535 @@
   </si>
   <si>
     <t>Какой то движок akka-net-bpm</t>
+  </si>
+  <si>
+    <r>
+      <t>Arkmelky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>bpm_online_api_serv</t>
+    </r>
+  </si>
+  <si>
+    <t>bpmonline дергает api</t>
+  </si>
+  <si>
+    <r>
+      <t>EgorDm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>OsuSongBpmAnalyzer</t>
+    </r>
+  </si>
+  <si>
+    <t>Creates a graph with bpm of the song. Not sure if useful. Музыкальный плеер</t>
+  </si>
+  <si>
+    <t>roman-sukhatskyi/BpmOnlineCode</t>
+  </si>
+  <si>
+    <t>bpmobline SQL CODE</t>
+  </si>
+  <si>
+    <r>
+      <t>Sohojoe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>WatchTheBPM-Forms</t>
+    </r>
+  </si>
+  <si>
+    <t>Xamarin taaping apple watch</t>
+  </si>
+  <si>
+    <t>zhangweixing00/BPM_K2_Plugin</t>
+  </si>
+  <si>
+    <t>gjtempleton/BPM-WindowsFormApp</t>
+  </si>
+  <si>
+    <t>Хрень связанная с анализом звука</t>
+  </si>
+  <si>
+    <t>thequy/K3BPM</t>
+  </si>
+  <si>
+    <t>Какой то китайский BPM service</t>
+  </si>
+  <si>
+    <t>wilkovanderveen/OpenB.BPM.Core</t>
+  </si>
+  <si>
+    <t>Какая то state machina</t>
+  </si>
+  <si>
+    <t>affandar/simple-bpms</t>
+  </si>
+  <si>
+    <t>Получение информации от ANDROID,ios</t>
+  </si>
+  <si>
+    <t>LulzAreGiven/IGT_BPMN</t>
+  </si>
+  <si>
+    <r>
+      <t>vy4eslavik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BPMOnline_Connector</t>
+    </r>
+  </si>
+  <si>
+    <t>Коннектор между системой для ТСД MobileSmart и системой BPM-online. Разрабатывается для М-Транслайн</t>
+  </si>
+  <si>
+    <t>Какой то парсер Signavio BPMN</t>
+  </si>
+  <si>
+    <r>
+      <t>deltaphc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DiscordBPMToolkit</t>
+    </r>
+  </si>
+  <si>
+    <t>Какой то интталятор на XAML</t>
+  </si>
+  <si>
+    <t>DavoodFaramarzi/Nasir-BPMS</t>
+  </si>
+  <si>
+    <t>Какая то BPMS и Organization chart</t>
+  </si>
+  <si>
+    <t>DavoodFaramarzi/Sup-BPMS</t>
+  </si>
+  <si>
+    <t>amirhossein-saffari/KiteBPMS</t>
+  </si>
+  <si>
+    <t>Какая то BPMS система oracle и gojs</t>
+  </si>
+  <si>
+    <r>
+      <t>zjkl19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mvcBPMS</t>
+    </r>
+  </si>
+  <si>
+    <t>Какая то BPMS система</t>
+  </si>
+  <si>
+    <r>
+      <t>jump4r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>osu-automapper</t>
+    </r>
+  </si>
+  <si>
+    <t>BPM player хрень</t>
+  </si>
+  <si>
+    <t>neos1993/Code-for-bpmonline-Api</t>
+  </si>
+  <si>
+    <t>Bpmobline code api</t>
+  </si>
+  <si>
+    <t>tengelmann/bpmve-xpdl-library</t>
+  </si>
+  <si>
+    <t>code.google.com/p/bpmve-xpdl-library xpdl class library</t>
+  </si>
+  <si>
+    <r>
+      <t>andrei1293</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>bpmn-xpdl-analysis-tool</t>
+    </r>
+  </si>
+  <si>
+    <t>BPMN/XPDL Analysis Tool</t>
+  </si>
+  <si>
+    <t>LeeGameDev/osu_Beatmap_Editor</t>
+  </si>
+  <si>
+    <r>
+      <t>An osu! beatmap and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> editor.</t>
+    </r>
+  </si>
+  <si>
+    <t>aeolus0829/PO_Receipt</t>
+  </si>
+  <si>
+    <t>какая то китайская хрень</t>
+  </si>
+  <si>
+    <t>FulcrumVlsM/HelperObjects</t>
+  </si>
+  <si>
+    <t>Дополнительные классы для БП (SupportAgent) bpm'online</t>
+  </si>
+  <si>
+    <r>
+      <t>Matpkg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>osukePress</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple key press counter and bpm calculator</t>
+  </si>
+  <si>
+    <t>HP-dufeng/NetActiviti</t>
+  </si>
+  <si>
+    <r>
+      <t>Net version of Activiti </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> engine</t>
+    </r>
+  </si>
+  <si>
+    <t>llapresi/TempoTray</t>
+  </si>
+  <si>
+    <r>
+      <t>Windows tray application for tapping out </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>gotmug/WorkoutMusic</t>
+  </si>
+  <si>
+    <t>Easily tag the BPM for any songs and create playlists based on the BPM.</t>
+  </si>
+  <si>
+    <t>treepoint/MicroDelayCalculator</t>
+  </si>
+  <si>
+    <r>
+      <t>Небольшая offline утилита для расчета времени задержки исходя из </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>you1anna/MP3-Service</t>
+  </si>
+  <si>
+    <t>Audio file property and metadata cleaner service with BPM detection</t>
+  </si>
+  <si>
+    <t>PhantomBadger/Heartbeat</t>
+  </si>
+  <si>
+    <t>Unity Rhythm Game with Variable BPM Mechanics based off of Stepmania's File System</t>
+  </si>
+  <si>
+    <t>GediminasMasaitis/jamify</t>
+  </si>
+  <si>
+    <r>
+      <t>Syncs animated gif images to a certain </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, to jam out with songs!</t>
+    </r>
+  </si>
+  <si>
+    <t>robsiera/BonitaRestApi.Net</t>
+  </si>
+  <si>
+    <t>NET wrapper around the rest API provided by open source BPM solution Bonita.</t>
+  </si>
+  <si>
+    <t>0xFEEDC0DE64/MusicOrganizer</t>
+  </si>
+  <si>
+    <t>Small tool for DJs to move all MP3s in different folders based on BPM</t>
+  </si>
+  <si>
+    <t>itsnick86/SoundHound</t>
+  </si>
+  <si>
+    <t>An application for DJ's to store song information (Musical Key and BPM) to help with mixing</t>
+  </si>
+  <si>
+    <t>smlbrasil/OrquestraErrorLogParser</t>
+  </si>
+  <si>
+    <t>Какая то хрень</t>
+  </si>
+  <si>
+    <t>uni1PBN/Mana</t>
+  </si>
+  <si>
+    <t>Workflow foundation examples</t>
+  </si>
+  <si>
+    <t>tomsza123/automat_perkusyjny</t>
+  </si>
+  <si>
+    <t>mp3 хрень</t>
   </si>
 </sst>
 </file>
@@ -597,13 +1131,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF0366D6"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
@@ -629,6 +1156,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0366D6"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -661,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -691,63 +1225,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -802,6 +1319,24 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -816,12 +1351,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C90" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C106" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C106"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="N" dataDxfId="3"/>
-    <tableColumn id="2" name="name" dataDxfId="2"/>
-    <tableColumn id="3" name="Описание" dataDxfId="1"/>
+    <tableColumn id="1" name="N" dataDxfId="2"/>
+    <tableColumn id="2" name="name" dataDxfId="1"/>
+    <tableColumn id="3" name="Описание" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1082,7 +1617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1090,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1859,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1879,166 +2414,426 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>66</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>67</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>68</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>69</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
+      <c r="B71" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>70</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
+      <c r="B72" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>71</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
+      <c r="B73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>72</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13"/>
+      <c r="B74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>73</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13"/>
+      <c r="B75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>74</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
+      <c r="B76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>75</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>76</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>77</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="13"/>
+      <c r="B79" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>78</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="13"/>
+      <c r="B80" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>79</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
+      <c r="B81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>80</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>81</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>83</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="13"/>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>84</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="13"/>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>85</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="13"/>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>86</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>87</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="13"/>
+      <c r="B89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="13"/>
+      <c r="B90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>103</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="13"/>
+    </row>
+    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>104</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2104,11 +2899,39 @@
     <hyperlink ref="B65" r:id="rId60" display="https://github.com/kan6xing/BpmCodeGen"/>
     <hyperlink ref="B66" r:id="rId61" display="https://github.com/vadimart92/BpmProductivityTools"/>
     <hyperlink ref="B67" r:id="rId62" display="https://github.com/mi-tettamanti/akka-net-bpm"/>
+    <hyperlink ref="B70" r:id="rId63" display="https://github.com/roman-sukhatskyi/BpmOnlineCode"/>
+    <hyperlink ref="B72" r:id="rId64" display="https://github.com/zhangweixing00/BPM_K2_Plugin"/>
+    <hyperlink ref="B73" r:id="rId65" display="https://github.com/gjtempleton/BPM-WindowsFormApp"/>
+    <hyperlink ref="B74" r:id="rId66" display="https://github.com/thequy/K3BPM"/>
+    <hyperlink ref="B75" r:id="rId67" display="https://github.com/wilkovanderveen/OpenB.BPM.Core"/>
+    <hyperlink ref="B76" r:id="rId68" display="https://github.com/affandar/simple-bpms"/>
+    <hyperlink ref="B77" r:id="rId69" display="https://github.com/LulzAreGiven/IGT_BPMN"/>
+    <hyperlink ref="B80" r:id="rId70" display="https://github.com/DavoodFaramarzi/Nasir-BPMS"/>
+    <hyperlink ref="B81" r:id="rId71" display="https://github.com/DavoodFaramarzi/Sup-BPMS"/>
+    <hyperlink ref="B82" r:id="rId72" display="https://github.com/amirhossein-saffari/KiteBPMS"/>
+    <hyperlink ref="B85" r:id="rId73" display="https://github.com/neos1993/Code-for-bpmonline-Api"/>
+    <hyperlink ref="B86" r:id="rId74" display="https://github.com/tengelmann/bpmve-xpdl-library"/>
+    <hyperlink ref="B88" r:id="rId75" display="https://github.com/LeeGameDev/osu_Beatmap_Editor"/>
+    <hyperlink ref="B89" r:id="rId76" display="https://github.com/aeolus0829/PO_Receipt"/>
+    <hyperlink ref="B90" r:id="rId77" display="https://github.com/FulcrumVlsM/HelperObjects"/>
+    <hyperlink ref="B92" r:id="rId78" display="https://github.com/HP-dufeng/NetActiviti"/>
+    <hyperlink ref="B93" r:id="rId79" display="https://github.com/llapresi/TempoTray"/>
+    <hyperlink ref="B94" r:id="rId80" display="https://github.com/gotmug/WorkoutMusic"/>
+    <hyperlink ref="B95" r:id="rId81" display="https://github.com/treepoint/MicroDelayCalculator"/>
+    <hyperlink ref="B96" r:id="rId82" display="https://github.com/you1anna/MP3-Service"/>
+    <hyperlink ref="B97" r:id="rId83" display="https://github.com/PhantomBadger/Heartbeat"/>
+    <hyperlink ref="B98" r:id="rId84" display="https://github.com/GediminasMasaitis/jamify"/>
+    <hyperlink ref="B99" r:id="rId85" display="https://github.com/robsiera/BonitaRestApi.Net"/>
+    <hyperlink ref="B100" r:id="rId86" display="https://github.com/0xFEEDC0DE64/MusicOrganizer"/>
+    <hyperlink ref="B101" r:id="rId87" display="https://github.com/itsnick86/SoundHound"/>
+    <hyperlink ref="B102" r:id="rId88" display="https://github.com/smlbrasil/OrquestraErrorLogParser"/>
+    <hyperlink ref="B103" r:id="rId89" display="https://github.com/uni1PBN/Mana"/>
+    <hyperlink ref="B104" r:id="rId90" display="https://github.com/tomsza123/automat_perkusyjny"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
   <tableParts count="1">
-    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId92"/>
   </tableParts>
 </worksheet>
 </file>